--- a/biology/Médecine/Périartérite_noueuse/Périartérite_noueuse.xlsx
+++ b/biology/Médecine/Périartérite_noueuse/Périartérite_noueuse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>P%C3%A9riart%C3%A9rite_noueuse</t>
+          <t>Périartérite_noueuse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La périartérite noueuse (PAN) (ou polyartérite noueuse ou maladie de Kussmaul-Maier) est une maladie auto-immune responsable d'une vascularite nécrosante atteignant les artères de moyen calibre. Il n'existe pas de prédominance de sexe, la maladie débute habituellement après 40 ans. Dans 90 % des cas, les causes de la maladie sont inconnues. Mais 10 % des périartérites noueuses succèdent à une infection par le virus de l'hépatite B, sans que ce lien soit encore élucidé.
 Il existe deux classifications principales des vascularites :
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>P%C3%A9riart%C3%A9rite_noueuse</t>
+          <t>Périartérite_noueuse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,9 +526,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle a été décrite pour la première fois par le médecin allemand Adolf Kussmaul en 1866[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a été décrite pour la première fois par le médecin allemand Adolf Kussmaul en 1866.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>P%C3%A9riart%C3%A9rite_noueuse</t>
+          <t>Périartérite_noueuse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Selon l’American College of Rheumatology :
 amaigrissement &gt; 4 kg ;
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>P%C3%A9riart%C3%A9rite_noueuse</t>
+          <t>Périartérite_noueuse</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,10 +600,12 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La PAN toucherait environ 1 personne sur 33 000. Cette incidence serait en diminution[2].
-La PAN serait plus fréquente entre 40 et 60 ans, et toucherait légèrement plus les hommes que les femmes[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La PAN toucherait environ 1 personne sur 33 000. Cette incidence serait en diminution.
+La PAN serait plus fréquente entre 40 et 60 ans, et toucherait légèrement plus les hommes que les femmes.
 </t>
         </is>
       </c>
@@ -598,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>P%C3%A9riart%C3%A9rite_noueuse</t>
+          <t>Périartérite_noueuse</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -616,10 +634,12 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est inconnue dans la majorité des cas. Une hépatite B peut être associée dans les formes de l'adulte[3]. 
-Des formes familiales sont décrites[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est inconnue dans la majorité des cas. Une hépatite B peut être associée dans les formes de l'adulte. 
+Des formes familiales sont décrites.
 </t>
         </is>
       </c>
@@ -630,7 +650,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>P%C3%A9riart%C3%A9rite_noueuse</t>
+          <t>Périartérite_noueuse</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -648,7 +668,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Les symptômes de la périartérite noueuse étant variés. Il n’y a donc pas de tests diagnostiques visant un symptôme ou un signe spécifique. Avant tout traitement, le clinicien établit et analyse l’historique médicale du patient. Il doit ensuite intégrer les éléments cliniques, les données radiologiques (angiographie) et/ou histologiques pour valider le diagnostic.
 Une recherche infectieuse est aussi réalisée. Elle cible des infections par les virus de l’hépatite B, C. Celle par le virus d’immunodéficience humaine (VIH) est aussi recherchée. Ces infections virales peuvent entraîner une PAN. Cela conduira à une thérapeutique appropriée.
@@ -669,7 +691,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>P%C3%A9riart%C3%A9rite_noueuse</t>
+          <t>Périartérite_noueuse</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -687,7 +709,9 @@
           <t>Examens complémentaires</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La recherche des lésions artérielles passe par deux examens clé . L'artériographie rénale et mésentérique retrouve (en particulier dans le rein) de nombreux anévrismes (dilatation localisée du calibre artériel de 2 à 5 mm), des zones non-perfusées. Ces zones résultent d'infarctus multiples, et responsables de l'insuffisance rénale progressive. Les autres localisations anévrismales doivent être recherchées. En particulier celles cérébrales qui peuvent entraîner une hémorragie méningée.
 L'examen histologique (anatomo-pathologique) d'une biopsie musculaire retrouve la nécrose des artères de moyen calibre. Elle est parfois accompagnée de fibrose. On pratiquera aussi un bilan inflammatoire (positif). Une recherche des marqueurs de l'hépatite B (inconstament positifs) et la recherche des anti-corps anti leucocytes P anca sera aussi faite.
@@ -701,7 +725,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>P%C3%A9riart%C3%A9rite_noueuse</t>
+          <t>Périartérite_noueuse</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -719,7 +743,9 @@
           <t>Évolution</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">La maladie est toujours fatale sans traitement. Un traitement adapté permet le plus souvent de guérir la maladie. Ainsi, les rechutes sont rares. Cependant, les destructions tissulaires (liées aux infarctus) sont le plus souvent irréversibles.
 </t>
@@ -732,7 +758,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>P%C3%A9riart%C3%A9rite_noueuse</t>
+          <t>Périartérite_noueuse</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -750,7 +776,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Le traitement n’est pas général. Il doit être adapté à la situation clinique. En effet certains facteurs doivent pris en compte : la sévérité de la maladie, l’évolution probable et le résultat d’études antérieures. Afin de mettre en place un traitement adapté, on utilise le FFS (Five Factor Score) : un tableau regroupant 5 facteurs décisifs :
 - Protéinurie.
@@ -773,7 +801,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>P%C3%A9riart%C3%A9rite_noueuse</t>
+          <t>Périartérite_noueuse</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -791,7 +819,9 @@
           <t>Prévention et éducation thérapeutique</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">La prévention passe par la vaccination contre l’hépatite B notamment des populations à risque. Elle explique la diminution considérable de l'incidence de la PAN liée au VHB depuis 1989. La fréquence de la PAN liée au VHB a décliné jusqu'à atteindre 7,3 ces dernières années (98). Depuis 1997, moins de dix nouveaux cas par an sont diagnostiqués en France.
 L’éducation thérapeutique vise à aider les patients à gérer au mieux leur vie avec une maladie chronique.
@@ -806,7 +836,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>P%C3%A9riart%C3%A9rite_noueuse</t>
+          <t>Périartérite_noueuse</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -824,7 +854,9 @@
           <t>Éléments médico-économiques</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Les patients atteints de périartérite noueuse sont susceptibles d’entrer dans le cadre de l’ALD (affection longue durée).
 </t>
